--- a/dataset/pacientes_detallado.xlsx
+++ b/dataset/pacientes_detallado.xlsx
@@ -29,12 +29,18 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF0000"/>
+        <bgColor rgb="00FF0000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +61,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS30"/>
+  <dimension ref="A1:BI30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,175 +498,255 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>das28_clasificacion</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>sledai_clasificacion</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>asdas_clasificacion</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>polimedicacion</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Cambio en Medicacion</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>INICIO TRATAMIENTO  BIOLOGICO / ANTIYACK</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>INICIO TRATAMIENTO DMARDS</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>ADHERENCIA MIROSKY GREEN BIOLOGICO</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>ADHERENCIA MIROSKY GREEN JACK</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>ADHERENCIA MIROSKY DMARDS</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Dispensacion parenteral</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>Dispesacion medicamentos oral</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Interacciones 1si 2no</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>interacciones mayores que requieran</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>clasificacion relevancia</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>mecanismo farmadinamicas</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>farmaco</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>descripcion de las molecula</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>1. Enfermedad cardiovascular</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>2. Hipertensión arterial</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>3. Diabetes mellitus</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>4. Enfermedad renal</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>5. Enfermedad hepatica</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>6. Osteoporosis/ Artrosis/ Osteoartrosis</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>7. Enfermedad gastrointestinal</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>8. Hipotiroidismo/Hipertiroidismo</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>9. Cancer</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>10. Otros</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>¿Cuáles otras?</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>4. Presenta más de 2 comorbilidades de la lista 
 2. Presenta 1 comorbilidad de la lista</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>APLICA CLINIMETRÍA
 0. No, requiere de otro parametro
 4. Si, pero es &gt; a 2 meses</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>das28_clasificacion</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>sledai_clasificacion</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>asdas_clasificacion</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>polimedicacion</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Cambio en Medicacion</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>INICIO TRATAMIENTO  BIOLOGICO / ANTIYACK</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>INICIO TRATAMIENTO DMARDS</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>ADHERENCIA MIROSKY GREEN BIOLOGICO</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>ADHERENCIA MIROSKY GREEN JACK</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>ADHERENCIA MIROSKY DMARDS</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>Dispensacion parenteral</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>Dispesacion medicamentos oral</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Interacciones 1si 2no</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>interacciones mayores que requieran</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>clasificacion relevancia</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>mecanismo farmadinamicas</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>farmaco</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>descripcion de las molecula</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>RAM</t>
         </is>
       </c>
     </row>
@@ -669,9 +756,6 @@
           <t>recomendaciones</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
       <c r="E2" t="n">
         <v>0</v>
       </c>
@@ -681,7 +765,6 @@
       <c r="G2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -740,16 +823,17 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD2" t="n">
         <v>0</v>
       </c>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
@@ -771,12 +855,6 @@
       <c r="AM2" t="n">
         <v>0</v>
       </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
       <c r="AP2" t="n">
         <v>0</v>
       </c>
@@ -788,6 +866,51 @@
       </c>
       <c r="AS2" t="n">
         <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI2" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -796,9 +919,6 @@
           <t>FASE DE EVALUACIÓN /ANÁLISIS</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
       <c r="E3" t="n">
         <v>0</v>
       </c>
@@ -808,7 +928,6 @@
       <c r="G3" t="n">
         <v>1</v>
       </c>
-      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -867,16 +986,17 @@
         <v>0</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD3" t="n">
         <v>0</v>
       </c>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
+      <c r="AE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
       <c r="AG3" t="n">
         <v>0</v>
       </c>
@@ -898,12 +1018,6 @@
       <c r="AM3" t="n">
         <v>0</v>
       </c>
-      <c r="AN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0</v>
-      </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
@@ -915,6 +1029,51 @@
       </c>
       <c r="AS3" t="n">
         <v>0</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI3" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -943,7 +1102,6 @@
       <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>0</v>
       </c>
@@ -954,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -963,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -978,73 +1136,74 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Leflunomida; Metotrexato</t>
+        </is>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="inlineStr">
         <is>
           <t>-higado graso -enfermedad varicosa de miembros inferiores</t>
         </is>
       </c>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ4" t="n">
         <v>1</v>
@@ -1053,7 +1212,57 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>Leflunomida; Metotrexato</t>
+        </is>
+      </c>
+      <c r="BI4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1082,7 +1291,6 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
         <v>0</v>
       </c>
@@ -1093,31 +1301,31 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -1126,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1141,21 +1349,22 @@
         <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" t="n">
         <v>0</v>
       </c>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>0</v>
+      </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
@@ -1167,28 +1376,67 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1217,7 +1465,6 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
         <v>0</v>
       </c>
@@ -1228,7 +1475,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1237,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -1252,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1261,75 +1508,127 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" t="n">
         <v>1</v>
       </c>
-      <c r="AC6" t="n">
-        <v>0</v>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>Leflunomida; Metotrexato</t>
+        </is>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN6" t="inlineStr">
         <is>
           <t>2, higado graso severo 4, dislipidemia</t>
         </is>
       </c>
-      <c r="AF6" t="n">
+      <c r="AO6" t="n">
         <v>2</v>
       </c>
-      <c r="AG6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>0</v>
-      </c>
       <c r="AP6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>Leflunomida; Metotrexato</t>
+        </is>
+      </c>
+      <c r="BI6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1358,7 +1657,6 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
         <v>0</v>
       </c>
@@ -1369,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1378,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -1393,80 +1691,131 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB7" t="n">
         <v>1</v>
       </c>
-      <c r="AC7" t="n">
-        <v>0</v>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Leflunomida; Metotrexato</t>
+        </is>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
       </c>
-      <c r="AE7" t="inlineStr"/>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
       <c r="AF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
         <v>2</v>
       </c>
-      <c r="AG7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AP7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>3</v>
       </c>
-      <c r="AI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>1</v>
-      </c>
       <c r="AR7" t="n">
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>Leflunomida; Metotrexato</t>
+        </is>
+      </c>
+      <c r="BI7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1495,7 +1844,6 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr"/>
       <c r="I8" t="n">
         <v>0</v>
       </c>
@@ -1506,16 +1854,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1530,16 +1878,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1554,30 +1902,31 @@
         <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" t="n">
         <v>0</v>
       </c>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
+      <c r="AE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0</v>
+      </c>
       <c r="AG8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
@@ -1585,23 +1934,62 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
-      <c r="AN8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>0</v>
-      </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1630,7 +2018,6 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
         <v>0</v>
       </c>
@@ -1641,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1650,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1659,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1668,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1689,59 +2076,101 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" t="inlineStr">
         <is>
           <t>2, apnea del sueño usuaria de cpap 4, asma 5, obesidad</t>
         </is>
       </c>
-      <c r="AF9" t="n">
+      <c r="AO9" t="n">
         <v>2</v>
       </c>
-      <c r="AG9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>0</v>
-      </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
       </c>
       <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1771,7 +2200,6 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>0</v>
       </c>
@@ -1785,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1794,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1806,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1815,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1824,51 +2252,47 @@
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" t="n">
         <v>0</v>
       </c>
-      <c r="AE10" t="inlineStr"/>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
       <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" t="n">
         <v>2</v>
       </c>
-      <c r="AG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>0</v>
-      </c>
       <c r="AP10" t="n">
         <v>0</v>
       </c>
@@ -1879,7 +2303,52 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1908,7 +2377,6 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
         <v>0</v>
       </c>
@@ -1919,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1928,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1937,46 +2405,52 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>3</v>
       </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>Metotrexato; Cloroquina; Hidroxicloroquina</t>
+        </is>
       </c>
       <c r="AD11" t="n">
         <v>0</v>
       </c>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
       <c r="AG11" t="n">
         <v>0</v>
       </c>
@@ -1990,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="n">
         <v>0</v>
@@ -1998,23 +2472,67 @@
       <c r="AM11" t="n">
         <v>0</v>
       </c>
-      <c r="AN11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>0</v>
-      </c>
       <c r="AP11" t="n">
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
         <v>3</v>
       </c>
-      <c r="AR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>1</v>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>Metotrexato; Cloroquina; Hidroxicloroquina</t>
+        </is>
+      </c>
+      <c r="BI11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2043,7 +2561,6 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
         <v>0</v>
       </c>
@@ -2054,106 +2571,157 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R12" t="n">
         <v>1</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Leflunomida; Sulfasalazina</t>
+        </is>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN12" t="inlineStr">
         <is>
           <t>dislipidemia</t>
         </is>
       </c>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH12" t="n">
+      <c r="AP12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>3</v>
       </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>1</v>
-      </c>
       <c r="AR12" t="n">
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>Leflunomida; Sulfasalazina</t>
+        </is>
+      </c>
+      <c r="BI12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2182,7 +2750,6 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
         <v>0</v>
       </c>
@@ -2193,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -2202,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -2217,7 +2784,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -2226,64 +2793,66 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Metotrexato</t>
+        </is>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN13" t="inlineStr">
         <is>
           <t>iridociclitis</t>
         </is>
       </c>
-      <c r="AF13" t="n">
+      <c r="AO13" t="n">
         <v>2</v>
       </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>0</v>
-      </c>
       <c r="AP13" t="n">
         <v>0</v>
       </c>
@@ -2294,7 +2863,57 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>Metotrexato</t>
+        </is>
+      </c>
+      <c r="BI13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2323,7 +2942,6 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
         <v>0</v>
       </c>
@@ -2334,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -2343,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -2382,47 +3000,43 @@
         <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN14" t="inlineStr">
         <is>
           <t>dislpidemia hipovitaminosis a</t>
         </is>
       </c>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>0</v>
-      </c>
       <c r="AP14" t="n">
         <v>0</v>
       </c>
@@ -2433,6 +3047,51 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,7 +3121,6 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
         <v>0</v>
       </c>
@@ -2473,16 +3131,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -2497,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -2506,73 +3164,124 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Metotrexato</t>
+        </is>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN15" t="inlineStr">
         <is>
           <t>migraña</t>
         </is>
       </c>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>0</v>
-      </c>
       <c r="AP15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ15" t="n">
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>Metotrexato</t>
+        </is>
+      </c>
+      <c r="BI15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2601,7 +3310,6 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
         <v>0</v>
       </c>
@@ -2612,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -2621,7 +3329,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -2636,16 +3344,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -2660,45 +3368,41 @@
         <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
       <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
         <v>2</v>
       </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>0</v>
-      </c>
       <c r="AP16" t="n">
         <v>0</v>
       </c>
@@ -2709,7 +3413,52 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2738,7 +3487,6 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
         <v>0</v>
       </c>
@@ -2749,7 +3497,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -2773,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -2782,36 +3530,42 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Metotrexato</t>
+        </is>
       </c>
       <c r="AD17" t="n">
         <v>0</v>
       </c>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
       <c r="AG17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
@@ -2828,23 +3582,67 @@
       <c r="AM17" t="n">
         <v>0</v>
       </c>
-      <c r="AN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>0</v>
-      </c>
       <c r="AP17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>Metotrexato</t>
+        </is>
+      </c>
+      <c r="BI17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2873,7 +3671,6 @@
       <c r="G18" t="n">
         <v>0</v>
       </c>
-      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
         <v>0</v>
       </c>
@@ -2884,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -2893,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -2902,88 +3699,139 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Metotrexato</t>
+        </is>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN18" t="inlineStr">
         <is>
           <t>tratamiento principal: metotrexate 15 mg vo semanal ***tomar 3 tab sabado y 3 tab domingo*** acido folico tab 5 mg tomar 1 los dias miercoles prednisolona1 diaria, acetaminofen, pregabalina conciliación de medicamentos: vit d, ciclobensapina vitamina b1, b12, b6</t>
         </is>
       </c>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>0</v>
-      </c>
       <c r="AP18" t="n">
         <v>0</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH18" t="inlineStr">
+        <is>
+          <t>Metotrexato</t>
+        </is>
+      </c>
+      <c r="BI18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3012,7 +3860,6 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>0</v>
       </c>
@@ -3023,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -3032,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -3047,84 +3894,126 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN19" t="inlineStr">
         <is>
           <t>2, tuberculosis latente 4, hiperplasia prostatica benigna</t>
         </is>
       </c>
-      <c r="AF19" t="n">
+      <c r="AO19" t="n">
         <v>2</v>
       </c>
-      <c r="AG19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>0</v>
-      </c>
       <c r="AP19" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3153,7 +4042,6 @@
       <c r="G20" t="n">
         <v>0</v>
       </c>
-      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
         <v>0</v>
       </c>
@@ -3164,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -3188,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -3197,73 +4085,124 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>Metotrexato</t>
+        </is>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN20" t="inlineStr">
         <is>
           <t>tratamiento principal: metotrexate 15 mg vo semanal (6 tabletas los sabados) ac folico 2 mg vo al dia</t>
         </is>
       </c>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>0</v>
-      </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20" t="n">
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH20" t="inlineStr">
+        <is>
+          <t>Metotrexato</t>
+        </is>
+      </c>
+      <c r="BI20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3292,7 +4231,6 @@
       <c r="G21" t="n">
         <v>0</v>
       </c>
-      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
         <v>0</v>
       </c>
@@ -3348,52 +4286,49 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN21" t="inlineStr">
         <is>
           <t>trastorno de ansiedad</t>
         </is>
       </c>
-      <c r="AF21" t="n">
+      <c r="AO21" t="n">
         <v>2</v>
       </c>
-      <c r="AG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>0</v>
-      </c>
       <c r="AP21" t="n">
         <v>0</v>
       </c>
@@ -3404,6 +4339,51 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3433,7 +4413,6 @@
       <c r="G22" t="n">
         <v>0</v>
       </c>
-      <c r="H22" t="inlineStr"/>
       <c r="I22" t="n">
         <v>0</v>
       </c>
@@ -3444,19 +4423,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -3468,16 +4447,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -3494,58 +4473,100 @@
       <c r="AB22" t="n">
         <v>1</v>
       </c>
-      <c r="AC22" t="n">
-        <v>0</v>
-      </c>
       <c r="AD22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE22" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN22" t="inlineStr">
         <is>
           <t>1, eficiencia de vitamina d, no especificada (e559) 2</t>
         </is>
       </c>
-      <c r="AF22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH22" t="n">
+      <c r="AO22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>3</v>
       </c>
-      <c r="AI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>1</v>
-      </c>
       <c r="AR22" t="n">
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3574,7 +4595,6 @@
       <c r="G23" t="n">
         <v>0</v>
       </c>
-      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
         <v>0</v>
       </c>
@@ -3585,40 +4605,40 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>1</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -3627,66 +4647,108 @@
         <v>0</v>
       </c>
       <c r="Z23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN23" t="inlineStr">
         <is>
           <t>sin fractura patologica</t>
         </is>
       </c>
-      <c r="AF23" t="n">
+      <c r="AO23" t="n">
         <v>2</v>
       </c>
-      <c r="AG23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH23" t="n">
+      <c r="AP23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>2</v>
       </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>1</v>
-      </c>
       <c r="AR23" t="n">
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3715,7 +4777,6 @@
       <c r="G24" t="n">
         <v>0</v>
       </c>
-      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
         <v>0</v>
       </c>
@@ -3726,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -3735,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -3750,82 +4811,133 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Metotrexato; Sulfasalazina</t>
+        </is>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN24" t="inlineStr">
         <is>
           <t>epoc</t>
         </is>
       </c>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>0</v>
-      </c>
       <c r="AP24" t="n">
         <v>0</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR24" t="n">
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>Metotrexato; Sulfasalazina</t>
+        </is>
+      </c>
+      <c r="BI24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3854,7 +4966,6 @@
       <c r="G25" t="n">
         <v>0</v>
       </c>
-      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
         <v>0</v>
       </c>
@@ -3865,7 +4976,7 @@
         <v>4</v>
       </c>
       <c r="L25" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
@@ -3874,7 +4985,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -3883,90 +4994,142 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
+        <v>1</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
         <v>3</v>
       </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>1</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25" t="n">
         <v>1</v>
       </c>
-      <c r="AC25" t="n">
-        <v>0</v>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Metotrexato</t>
+        </is>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN25" t="inlineStr">
         <is>
           <t>2, tenosinovitis por sobreuso 3</t>
         </is>
       </c>
-      <c r="AF25" t="n">
+      <c r="AO25" t="n">
         <v>2</v>
       </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>0</v>
-      </c>
       <c r="AP25" t="n">
         <v>0</v>
       </c>
       <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
         <v>3</v>
       </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>1</v>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>Metotrexato</t>
+        </is>
+      </c>
+      <c r="BI25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3995,7 +5158,6 @@
       <c r="G26" t="n">
         <v>0</v>
       </c>
-      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -4006,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -4015,7 +5177,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -4030,7 +5192,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -4039,62 +5201,58 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN26" t="inlineStr">
         <is>
           <t>2, cor pulmonale 3, osteopenia</t>
         </is>
       </c>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>0</v>
-      </c>
       <c r="AP26" t="n">
         <v>0</v>
       </c>
@@ -4105,7 +5263,52 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4134,7 +5337,6 @@
       <c r="G27" t="n">
         <v>0</v>
       </c>
-      <c r="H27" t="inlineStr"/>
       <c r="I27" t="n">
         <v>0</v>
       </c>
@@ -4145,40 +5347,40 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R27" t="n">
         <v>1</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -4187,57 +5389,54 @@
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="inlineStr">
         <is>
           <t>2, psoriasis</t>
         </is>
       </c>
-      <c r="AF27" t="n">
+      <c r="AO27" t="n">
         <v>2</v>
       </c>
-      <c r="AG27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>4</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>1</v>
-      </c>
       <c r="AP27" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AQ27" t="n">
         <v>1</v>
@@ -4246,7 +5445,52 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -4275,7 +5519,6 @@
       <c r="G28" t="n">
         <v>0</v>
       </c>
-      <c r="H28" t="inlineStr"/>
       <c r="I28" t="n">
         <v>0</v>
       </c>
@@ -4286,7 +5529,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -4295,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -4304,88 +5547,139 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Metotrexato; Prednisolona</t>
+        </is>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN28" t="inlineStr">
         <is>
           <t>miopatia, no especificada (g729) sindrome seco [sjögren] (m350)</t>
         </is>
       </c>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK28" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO28" t="n">
-        <v>0</v>
-      </c>
       <c r="AP28" t="n">
         <v>0</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR28" t="n">
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>Metotrexato; Prednisolona</t>
+        </is>
+      </c>
+      <c r="BI28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4414,7 +5708,6 @@
       <c r="G29" t="n">
         <v>0</v>
       </c>
-      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
         <v>0</v>
       </c>
@@ -4425,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -4434,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -4443,23 +5736,23 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
+        <v>1</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
         <v>3</v>
       </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>2</v>
       </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>1</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
@@ -4473,60 +5766,102 @@
         <v>0</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN29" t="inlineStr">
         <is>
           <t>epilepsia, dislipidemia</t>
         </is>
       </c>
-      <c r="AF29" t="n">
+      <c r="AO29" t="n">
         <v>2</v>
       </c>
-      <c r="AG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK29" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO29" t="n">
-        <v>0</v>
-      </c>
       <c r="AP29" t="n">
         <v>0</v>
       </c>
       <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" t="n">
         <v>3</v>
       </c>
-      <c r="AR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS29" t="n">
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
         <v>2</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -4555,7 +5890,6 @@
       <c r="G30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
         <v>0</v>
       </c>
@@ -4584,22 +5918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -4616,54 +5950,95 @@
       <c r="AB30" t="n">
         <v>1</v>
       </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
       <c r="AD30" t="n">
         <v>0</v>
       </c>
-      <c r="AE30" t="inlineStr"/>
+      <c r="AE30" t="n">
+        <v>0</v>
+      </c>
       <c r="AF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO30" t="n">
         <v>2</v>
       </c>
-      <c r="AG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO30" t="n">
-        <v>0</v>
-      </c>
       <c r="AP30" t="n">
         <v>0</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR30" t="n">
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/pacientes_detallado.xlsx
+++ b/dataset/pacientes_detallado.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BI30"/>
+  <dimension ref="A1:CW30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -588,165 +588,365 @@
       </c>
       <c r="AD1" s="1" t="inlineStr">
         <is>
+          <t>MEDICAMENTO_SOSPECHOSO</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>ESTADO ACUTAL RAM</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>0NO 2 SI</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>TIPO</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>DEFINIDO POR COMITE FV</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>0 NO 1 SI</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>ADMINISTRACION ERRONEA DEL MEDICAMENTO</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>CARACTERISTICAS PERSONALES</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>CONVERSACION INADECUADA</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>CONTRAINDICACION</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>DOSIS PAUTAS</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>DUPLICIDAD</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>ERRROES EN LA DISPENSACION</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>ERRORES EN LA PRESCIRPCION</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>IN CUMPLIMIENTO</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>INTERACCIONES</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>OTROS PROBLEMAS</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>PROBAVBILIDAD DE EFECTOS ADVERSOS</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>PROBLEMA DE SALUD</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>OTROS</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
           <t>1. Enfermedad cardiovascular</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>2. Hipertensión arterial</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>3. Diabetes mellitus</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>4. Enfermedad renal</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>5. Enfermedad hepatica</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>6. Osteoporosis/ Artrosis/ Osteoartrosis</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>7. Enfermedad gastrointestinal</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>8. Hipotiroidismo/Hipertiroidismo</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>9. Cancer</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>10. Otros</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>¿Cuáles otras?</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>4. Presenta más de 2 comorbilidades de la lista 
 2. Presenta 1 comorbilidad de la lista</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>APLICA CLINIMETRÍA
 0. No, requiere de otro parametro
 4. Si, pero es &gt; a 2 meses</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>das28_clasificacion</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>sledai_clasificacion</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>asdas_clasificacion</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>polimedicacion</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>Cambio en Medicacion</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>INICIO TRATAMIENTO  BIOLOGICO / ANTIYACK</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>INICIO TRATAMIENTO DMARDS</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>ADHERENCIA MIROSKY GREEN BIOLOGICO</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>ADHERENCIA MIROSKY GREEN JACK</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>ADHERENCIA MIROSKY DMARDS</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>Dispensacion parenteral</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>Dispesacion medicamentos oral</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>Interacciones 1si 2no</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>interacciones mayores que requieran</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>clasificacion relevancia</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>mecanismo farmadinamicas</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>farmaco</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>descripcion de las molecula</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>RAM</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>MEDICAMENTO_SOSPECHOSO</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>ESTADO ACUTAL RAM</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>0NO 2 SI</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>TIPO</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>DEFINIDO POR COMITE FV</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>0 NO 1 SI</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>ADMINISTRACION ERRONEA DEL MEDICAMENTO</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>CARACTERISTICAS PERSONALES</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>CONVERSACION INADECUADA</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>CONTRAINDICACION</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>DOSIS PAUTAS</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>DUPLICIDAD</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>ERRROES EN LA DISPENSACION</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>ERRORES EN LA PRESCIRPCION</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>IN CUMPLIMIENTO</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>INTERACCIONES</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>OTROS PROBLEMAS</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>PROBAVBILIDAD DE EFECTOS ADVERSOS</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>PROBLEMA DE SALUD</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>OTROS</t>
         </is>
       </c>
     </row>
@@ -825,60 +1025,6 @@
       <c r="AB2" t="n">
         <v>1</v>
       </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
       <c r="AX2" t="n">
         <v>0</v>
       </c>
@@ -907,9 +1053,63 @@
         <v>0</v>
       </c>
       <c r="BG2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC2" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -988,60 +1188,6 @@
       <c r="AB3" t="n">
         <v>1</v>
       </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW3" t="n">
-        <v>0</v>
-      </c>
       <c r="AX3" t="n">
         <v>0</v>
       </c>
@@ -1070,9 +1216,63 @@
         <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY3" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC3" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1195,73 +1395,193 @@
         <v>0</v>
       </c>
       <c r="AM4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH4" t="inlineStr">
         <is>
           <t>-higado graso -enfermedad varicosa de miembros inferiores</t>
         </is>
       </c>
-      <c r="AP4" t="n">
+      <c r="BJ4" t="n">
         <v>4</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT4" t="n">
+      <c r="BK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN4" t="n">
         <v>4</v>
       </c>
-      <c r="AU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD4" t="n">
+      <c r="BO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX4" t="n">
         <v>2</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BY4" t="n">
         <v>3</v>
       </c>
-      <c r="BF4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH4" t="inlineStr">
+      <c r="BZ4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB4" t="inlineStr">
         <is>
           <t>Leflunomida; Metotrexato</t>
         </is>
       </c>
-      <c r="BI4" t="n">
+      <c r="CC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1381,61 +1701,181 @@
       <c r="AM5" t="n">
         <v>0</v>
       </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
       <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ5" t="n">
         <v>4</v>
       </c>
-      <c r="AQ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU5" t="n">
+      <c r="BK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO5" t="n">
         <v>4</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="BP5" t="n">
         <v>4</v>
       </c>
-      <c r="AW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG5" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI5" t="n">
+      <c r="BQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY5" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,82 +1992,202 @@
         <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="n">
         <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH6" t="inlineStr">
         <is>
           <t>2, higado graso severo 4, dislipidemia</t>
         </is>
       </c>
-      <c r="AO6" t="n">
+      <c r="BI6" t="n">
         <v>2</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="BJ6" t="n">
         <v>4</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT6" t="n">
+      <c r="BK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
         <v>4</v>
       </c>
-      <c r="AU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD6" t="n">
+      <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX6" t="n">
         <v>2</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BY6" t="n">
         <v>3</v>
       </c>
-      <c r="BF6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG6" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH6" t="inlineStr">
+      <c r="BZ6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA6" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB6" t="inlineStr">
         <is>
           <t>Leflunomida; Metotrexato</t>
         </is>
       </c>
-      <c r="BI6" t="n">
+      <c r="CC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1744,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
         <v>0</v>
@@ -1752,69 +2312,189 @@
       <c r="AM7" t="n">
         <v>0</v>
       </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
       <c r="AO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
         <v>2</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="BJ7" t="n">
         <v>4</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="BK7" t="n">
         <v>3</v>
       </c>
-      <c r="AR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT7" t="n">
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
         <v>4</v>
       </c>
-      <c r="AU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD7" t="n">
+      <c r="BO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX7" t="n">
         <v>2</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BY7" t="n">
         <v>3</v>
       </c>
-      <c r="BF7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH7" t="inlineStr">
+      <c r="BZ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA7" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB7" t="inlineStr">
         <is>
           <t>Leflunomida; Metotrexato</t>
         </is>
       </c>
-      <c r="BI7" t="n">
+      <c r="CC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1934,61 +2614,181 @@
       <c r="AM8" t="n">
         <v>0</v>
       </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0</v>
+      </c>
       <c r="AP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ8" t="n">
         <v>4</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT8" t="n">
+      <c r="BK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN8" t="n">
         <v>4</v>
       </c>
-      <c r="AU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI8" t="n">
+      <c r="BO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY8" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA8" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2082,7 +2882,7 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
         <v>0</v>
@@ -2106,71 +2906,191 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH9" t="inlineStr">
         <is>
           <t>2, apnea del sueño usuaria de cpap 4, asma 5, obesidad</t>
         </is>
       </c>
-      <c r="AO9" t="n">
+      <c r="BI9" t="n">
         <v>2</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="BJ9" t="n">
         <v>4</v>
       </c>
-      <c r="AQ9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW9" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ9" t="n">
+      <c r="BK9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT9" t="n">
         <v>4</v>
       </c>
-      <c r="BA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI9" t="n">
+      <c r="BU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY9" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA9" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV9" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2276,7 +3196,7 @@
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -2290,64 +3210,184 @@
       <c r="AM10" t="n">
         <v>0</v>
       </c>
+      <c r="AN10" t="n">
+        <v>0</v>
+      </c>
       <c r="AO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" t="n">
         <v>2</v>
       </c>
-      <c r="AP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI10" t="n">
+      <c r="BJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY10" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA10" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV10" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2472,6 +3512,12 @@
       <c r="AM11" t="n">
         <v>0</v>
       </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0</v>
+      </c>
       <c r="AP11" t="n">
         <v>0</v>
       </c>
@@ -2485,53 +3531,167 @@
         <v>0</v>
       </c>
       <c r="AT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN11" t="n">
         <v>4</v>
       </c>
-      <c r="AU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ11" t="n">
+      <c r="BO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT11" t="n">
         <v>3</v>
       </c>
-      <c r="BA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD11" t="n">
+      <c r="BU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX11" t="n">
         <v>2</v>
       </c>
-      <c r="BE11" t="n">
+      <c r="BY11" t="n">
         <v>3</v>
       </c>
-      <c r="BF11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH11" t="inlineStr">
+      <c r="BZ11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB11" t="inlineStr">
         <is>
           <t>Metotrexato; Cloroquina; Hidroxicloroquina</t>
         </is>
       </c>
-      <c r="BI11" t="n">
+      <c r="CC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2654,73 +3814,193 @@
         <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH12" t="inlineStr">
         <is>
           <t>dislipidemia</t>
         </is>
       </c>
-      <c r="AP12" t="n">
+      <c r="BJ12" t="n">
         <v>4</v>
       </c>
-      <c r="AQ12" t="n">
+      <c r="BK12" t="n">
         <v>3</v>
       </c>
-      <c r="AR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT12" t="n">
+      <c r="BL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN12" t="n">
         <v>4</v>
       </c>
-      <c r="AU12" t="n">
+      <c r="BO12" t="n">
         <v>4</v>
       </c>
-      <c r="AV12" t="n">
+      <c r="BP12" t="n">
         <v>4</v>
       </c>
-      <c r="AW12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD12" t="n">
+      <c r="BQ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX12" t="n">
         <v>2</v>
       </c>
-      <c r="BE12" t="n">
+      <c r="BY12" t="n">
         <v>3</v>
       </c>
-      <c r="BF12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH12" t="inlineStr">
+      <c r="BZ12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA12" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB12" t="inlineStr">
         <is>
           <t>Leflunomida; Sulfasalazina</t>
         </is>
       </c>
-      <c r="BI12" t="n">
+      <c r="CC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2831,7 +4111,7 @@
         <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
@@ -2843,76 +4123,196 @@
         <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH13" t="inlineStr">
         <is>
           <t>iridociclitis</t>
         </is>
       </c>
-      <c r="AO13" t="n">
+      <c r="BI13" t="n">
         <v>2</v>
       </c>
-      <c r="AP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT13" t="n">
+      <c r="BJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN13" t="n">
         <v>4</v>
       </c>
-      <c r="AU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD13" t="n">
+      <c r="BO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX13" t="n">
         <v>2</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="BY13" t="n">
         <v>3</v>
       </c>
-      <c r="BF13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH13" t="inlineStr">
+      <c r="BZ13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA13" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB13" t="inlineStr">
         <is>
           <t>Metotrexato</t>
         </is>
       </c>
-      <c r="BI13" t="n">
+      <c r="CC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV13" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3030,68 +4430,188 @@
         <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH14" t="inlineStr">
         <is>
           <t>dislpidemia hipovitaminosis a</t>
         </is>
       </c>
-      <c r="AP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT14" t="n">
+      <c r="BJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN14" t="n">
         <v>4</v>
       </c>
-      <c r="AU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI14" t="n">
+      <c r="BO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA14" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3214,73 +4734,193 @@
         <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH15" t="inlineStr">
         <is>
           <t>migraña</t>
         </is>
       </c>
-      <c r="AP15" t="n">
+      <c r="BJ15" t="n">
         <v>4</v>
       </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT15" t="n">
+      <c r="BK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN15" t="n">
         <v>4</v>
       </c>
-      <c r="AU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD15" t="n">
+      <c r="BO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX15" t="n">
         <v>2</v>
       </c>
-      <c r="BE15" t="n">
+      <c r="BY15" t="n">
         <v>3</v>
       </c>
-      <c r="BF15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH15" t="inlineStr">
+      <c r="BZ15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA15" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB15" t="inlineStr">
         <is>
           <t>Metotrexato</t>
         </is>
       </c>
-      <c r="BI15" t="n">
+      <c r="CC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV15" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3371,7 +5011,7 @@
         <v>1</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
         <v>0</v>
@@ -3400,64 +5040,184 @@
       <c r="AM16" t="n">
         <v>0</v>
       </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
       <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI16" t="n">
         <v>2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT16" t="n">
+      <c r="BJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN16" t="n">
         <v>4</v>
       </c>
-      <c r="AU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI16" t="n">
+      <c r="BO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA16" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV16" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3582,66 +5342,186 @@
       <c r="AM17" t="n">
         <v>0</v>
       </c>
+      <c r="AN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0</v>
+      </c>
       <c r="AP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ17" t="n">
         <v>4</v>
       </c>
-      <c r="AQ17" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD17" t="n">
+      <c r="BK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX17" t="n">
         <v>2</v>
       </c>
-      <c r="BE17" t="n">
+      <c r="BY17" t="n">
         <v>3</v>
       </c>
-      <c r="BF17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH17" t="inlineStr">
+      <c r="BZ17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA17" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB17" t="inlineStr">
         <is>
           <t>Metotrexato</t>
         </is>
       </c>
-      <c r="BI17" t="n">
+      <c r="CC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3764,73 +5644,193 @@
         <v>0</v>
       </c>
       <c r="AM18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH18" t="inlineStr">
         <is>
           <t>tratamiento principal: metotrexate 15 mg vo semanal ***tomar 3 tab sabado y 3 tab domingo*** acido folico tab 5 mg tomar 1 los dias miercoles prednisolona1 diaria, acetaminofen, pregabalina conciliación de medicamentos: vit d, ciclobensapina vitamina b1, b12, b6</t>
         </is>
       </c>
-      <c r="AP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT18" t="n">
+      <c r="BJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN18" t="n">
         <v>4</v>
       </c>
-      <c r="AU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD18" t="n">
+      <c r="BO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX18" t="n">
         <v>2</v>
       </c>
-      <c r="BE18" t="n">
+      <c r="BY18" t="n">
         <v>3</v>
       </c>
-      <c r="BF18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH18" t="inlineStr">
+      <c r="BZ18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA18" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB18" t="inlineStr">
         <is>
           <t>Metotrexato</t>
         </is>
       </c>
-      <c r="BI18" t="n">
+      <c r="CC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV18" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3924,7 +5924,7 @@
         <v>0</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -3948,71 +5948,191 @@
         <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH19" t="inlineStr">
         <is>
           <t>2, tuberculosis latente 4, hiperplasia prostatica benigna</t>
         </is>
       </c>
-      <c r="AO19" t="n">
+      <c r="BI19" t="n">
         <v>2</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="BJ19" t="n">
         <v>4</v>
       </c>
-      <c r="AQ19" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT19" t="n">
+      <c r="BK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN19" t="n">
         <v>4</v>
       </c>
-      <c r="AU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD19" t="n">
+      <c r="BO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX19" t="n">
         <v>2</v>
       </c>
-      <c r="BE19" t="n">
+      <c r="BY19" t="n">
         <v>3</v>
       </c>
-      <c r="BF19" t="n">
+      <c r="BZ19" t="n">
         <v>2</v>
       </c>
-      <c r="BG19" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI19" t="n">
+      <c r="CA19" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4135,73 +6255,193 @@
         <v>0</v>
       </c>
       <c r="AM20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH20" t="inlineStr">
         <is>
           <t>tratamiento principal: metotrexate 15 mg vo semanal (6 tabletas los sabados) ac folico 2 mg vo al dia</t>
         </is>
       </c>
-      <c r="AP20" t="n">
+      <c r="BJ20" t="n">
         <v>4</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD20" t="n">
+      <c r="BK20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX20" t="n">
         <v>2</v>
       </c>
-      <c r="BE20" t="n">
+      <c r="BY20" t="n">
         <v>3</v>
       </c>
-      <c r="BF20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH20" t="inlineStr">
+      <c r="BZ20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA20" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB20" t="inlineStr">
         <is>
           <t>Metotrexato</t>
         </is>
       </c>
-      <c r="BI20" t="n">
+      <c r="CC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4310,7 +6550,7 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
@@ -4319,71 +6559,191 @@
         <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH21" t="inlineStr">
         <is>
           <t>trastorno de ansiedad</t>
         </is>
       </c>
-      <c r="AO21" t="n">
+      <c r="BI21" t="n">
         <v>2</v>
       </c>
-      <c r="AP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI21" t="n">
+      <c r="BJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY21" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA21" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4477,7 +6837,7 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
@@ -4495,77 +6855,197 @@
         <v>0</v>
       </c>
       <c r="AK22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL22" t="n">
         <v>0</v>
       </c>
       <c r="AM22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN22" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH22" t="inlineStr">
         <is>
           <t>1, eficiencia de vitamina d, no especificada (e559) 2</t>
         </is>
       </c>
-      <c r="AO22" t="n">
+      <c r="BI22" t="n">
         <v>4</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="BJ22" t="n">
         <v>4</v>
       </c>
-      <c r="AQ22" t="n">
+      <c r="BK22" t="n">
         <v>3</v>
       </c>
-      <c r="AR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI22" t="n">
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4671,7 +7151,7 @@
         <v>0</v>
       </c>
       <c r="AI23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ23" t="n">
         <v>0</v>
@@ -4683,71 +7163,191 @@
         <v>0</v>
       </c>
       <c r="AM23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH23" t="inlineStr">
         <is>
           <t>sin fractura patologica</t>
         </is>
       </c>
-      <c r="AO23" t="n">
+      <c r="BI23" t="n">
         <v>2</v>
       </c>
-      <c r="AP23" t="n">
+      <c r="BJ23" t="n">
         <v>4</v>
       </c>
-      <c r="AQ23" t="n">
+      <c r="BK23" t="n">
         <v>2</v>
       </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT23" t="n">
+      <c r="BL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN23" t="n">
         <v>4</v>
       </c>
-      <c r="AU23" t="n">
+      <c r="BO23" t="n">
         <v>4</v>
       </c>
-      <c r="AV23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI23" t="n">
+      <c r="BP23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY23" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA23" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV23" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4870,73 +7470,193 @@
         <v>0</v>
       </c>
       <c r="AM24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH24" t="inlineStr">
         <is>
           <t>epoc</t>
         </is>
       </c>
-      <c r="AP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT24" t="n">
+      <c r="BJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN24" t="n">
         <v>4</v>
       </c>
-      <c r="AU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD24" t="n">
+      <c r="BO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX24" t="n">
         <v>2</v>
       </c>
-      <c r="BE24" t="n">
+      <c r="BY24" t="n">
         <v>3</v>
       </c>
-      <c r="BF24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH24" t="inlineStr">
+      <c r="BZ24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB24" t="inlineStr">
         <is>
           <t>Metotrexato; Sulfasalazina</t>
         </is>
       </c>
-      <c r="BI24" t="n">
+      <c r="CC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5053,82 +7773,202 @@
         <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL25" t="n">
         <v>0</v>
       </c>
       <c r="AM25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH25" t="inlineStr">
         <is>
           <t>2, tenosinovitis por sobreuso 3</t>
         </is>
       </c>
-      <c r="AO25" t="n">
+      <c r="BI25" t="n">
         <v>2</v>
       </c>
-      <c r="AP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT25" t="n">
+      <c r="BJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN25" t="n">
         <v>4</v>
       </c>
-      <c r="AU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ25" t="n">
+      <c r="BO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT25" t="n">
         <v>3</v>
       </c>
-      <c r="BA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD25" t="n">
+      <c r="BU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX25" t="n">
         <v>2</v>
       </c>
-      <c r="BE25" t="n">
+      <c r="BY25" t="n">
         <v>3</v>
       </c>
-      <c r="BF25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH25" t="inlineStr">
+      <c r="BZ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA25" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB25" t="inlineStr">
         <is>
           <t>Metotrexato</t>
         </is>
       </c>
-      <c r="BI25" t="n">
+      <c r="CC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV25" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5246,68 +8086,188 @@
         <v>0</v>
       </c>
       <c r="AM26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH26" t="inlineStr">
         <is>
           <t>2, cor pulmonale 3, osteopenia</t>
         </is>
       </c>
-      <c r="AP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT26" t="n">
+      <c r="BJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN26" t="n">
         <v>4</v>
       </c>
-      <c r="AU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC26" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD26" t="n">
+      <c r="BO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX26" t="n">
         <v>2</v>
       </c>
-      <c r="BE26" t="n">
+      <c r="BY26" t="n">
         <v>3</v>
       </c>
-      <c r="BF26" t="n">
+      <c r="BZ26" t="n">
         <v>2</v>
       </c>
-      <c r="BG26" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI26" t="n">
+      <c r="CA26" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV26" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5413,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="AI27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ27" t="n">
         <v>0</v>
@@ -5425,71 +8385,191 @@
         <v>0</v>
       </c>
       <c r="AM27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH27" t="inlineStr">
         <is>
           <t>2, psoriasis</t>
         </is>
       </c>
-      <c r="AO27" t="n">
+      <c r="BI27" t="n">
         <v>2</v>
       </c>
-      <c r="AP27" t="n">
+      <c r="BJ27" t="n">
         <v>4</v>
       </c>
-      <c r="AQ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV27" t="n">
+      <c r="BK27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP27" t="n">
         <v>4</v>
       </c>
-      <c r="AW27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI27" t="n">
+      <c r="BQ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY27" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA27" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5612,73 +8692,193 @@
         <v>0</v>
       </c>
       <c r="AM28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN28" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH28" t="inlineStr">
         <is>
           <t>miopatia, no especificada (g729) sindrome seco [sjögren] (m350)</t>
         </is>
       </c>
-      <c r="AP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT28" t="n">
+      <c r="BJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN28" t="n">
         <v>4</v>
       </c>
-      <c r="AU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BD28" t="n">
+      <c r="BO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BX28" t="n">
         <v>2</v>
       </c>
-      <c r="BE28" t="n">
+      <c r="BY28" t="n">
         <v>3</v>
       </c>
-      <c r="BF28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>1</v>
-      </c>
-      <c r="BH28" t="inlineStr">
+      <c r="BZ28" t="n">
+        <v>1</v>
+      </c>
+      <c r="CA28" t="n">
+        <v>1</v>
+      </c>
+      <c r="CB28" t="inlineStr">
         <is>
           <t>Metotrexato; Prednisolona</t>
         </is>
       </c>
-      <c r="BI28" t="n">
+      <c r="CC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV28" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5772,7 +8972,7 @@
         <v>0</v>
       </c>
       <c r="AE29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" t="n">
         <v>0</v>
@@ -5796,71 +8996,191 @@
         <v>0</v>
       </c>
       <c r="AM29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH29" t="inlineStr">
         <is>
           <t>epilepsia, dislipidemia</t>
         </is>
       </c>
-      <c r="AO29" t="n">
+      <c r="BI29" t="n">
         <v>2</v>
       </c>
-      <c r="AP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT29" t="n">
+      <c r="BJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN29" t="n">
         <v>4</v>
       </c>
-      <c r="AU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ29" t="n">
+      <c r="BO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT29" t="n">
         <v>3</v>
       </c>
-      <c r="BA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB29" t="n">
+      <c r="BU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV29" t="n">
         <v>2</v>
       </c>
-      <c r="BC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI29" t="n">
+      <c r="BW29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY29" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA29" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5972,7 +9292,7 @@
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL30" t="n">
         <v>0</v>
@@ -5980,64 +9300,184 @@
       <c r="AM30" t="n">
         <v>0</v>
       </c>
+      <c r="AN30" t="n">
+        <v>0</v>
+      </c>
       <c r="AO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI30" t="n">
         <v>2</v>
       </c>
-      <c r="AP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>1</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>1</v>
-      </c>
-      <c r="BI30" t="n">
+      <c r="BJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA30" t="n">
+        <v>1</v>
+      </c>
+      <c r="CC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CE30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CV30" t="n">
+        <v>0</v>
+      </c>
+      <c r="CW30" t="n">
         <v>0</v>
       </c>
     </row>
